--- a/biology/Botanique/Comte_Frédéric_de_Thun-Hohenstein/Comte_Frédéric_de_Thun-Hohenstein.xlsx
+++ b/biology/Botanique/Comte_Frédéric_de_Thun-Hohenstein/Comte_Frédéric_de_Thun-Hohenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comte_Fr%C3%A9d%C3%A9ric_de_Thun-Hohenstein</t>
+          <t>Comte_Frédéric_de_Thun-Hohenstein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Comte Frédéric de Thun-Hohenstein' est un cultivar de rosier obtenu en 1880 par le rosiériste français Louis Lévêque. Cet hybride remontant rend hommage à un diplomate autrichien, le comte Frédéric de Thun-Hohenstein (1810-1881), grand amateur de roses[1],[2] et propriétaire du château de Tetschen[3] en Bohême.
+'Comte Frédéric de Thun-Hohenstein' est un cultivar de rosier obtenu en 1880 par le rosiériste français Louis Lévêque. Cet hybride remontant rend hommage à un diplomate autrichien, le comte Frédéric de Thun-Hohenstein (1810-1881), grand amateur de roses, et propriétaire du château de Tetschen en Bohême.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comte_Fr%C3%A9d%C3%A9ric_de_Thun-Hohenstein</t>
+          <t>Comte_Frédéric_de_Thun-Hohenstein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson au feuillage dense et vert clair pouvant atteindre 90 à 120 cm. Ses fleurs d'un rouge très foncé sont grosses, doubles (17-25 pétales), pleines et globulaires. Les pétales peuvent être marbrés de brun. La floraison est remontante[4]. Leur parfum est modéré. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson au feuillage dense et vert clair pouvant atteindre 90 à 120 cm. Ses fleurs d'un rouge très foncé sont grosses, doubles (17-25 pétales), pleines et globulaires. Les pétales peuvent être marbrés de brun. La floraison est remontante. Leur parfum est modéré. 
 Cette variété supporte des hivers jusqu'à -20°C. Elle nécessite un emplacement ensoleillé, un sol bien drainé, et de soins contre les maladies du rosier.
 On peut l'admirer à la roseraie de Sangerhausen, grand conservatoire de roses du monde entier situé en Allemagne.
 </t>
